--- a/Assets/StreamingAssets/Songs/5-Synthesis/Chart4.xlsx
+++ b/Assets/StreamingAssets/Songs/5-Synthesis/Chart4.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Xenody-main\Assets\StreamingAssets\Songs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F0CA8B85-1A94-42EF-BE78-1BE26E501D2B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6E8B17F6-805A-47B3-A825-70766B75A889}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="5" xr2:uid="{733D2C9F-C334-4499-8550-BE8F5C9E8DF7}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="3" xr2:uid="{733D2C9F-C334-4499-8550-BE8F5C9E8DF7}"/>
   </bookViews>
   <sheets>
     <sheet name="speed" sheetId="7" r:id="rId1"/>
@@ -25,17 +25,26 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="7" hidden="1">star!$O$49:$O$51</definedName>
   </definedNames>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="114" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="160" uniqueCount="37">
   <si>
     <t>id</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -574,10 +583,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9A9C96A9-1D89-4E37-B465-2098CA6EFD66}">
-  <dimension ref="A1:C12"/>
+  <dimension ref="A1:C29"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E6" sqref="E6"/>
+      <selection activeCell="C30" sqref="C30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -708,9 +717,196 @@
         <v>17.414999999999999</v>
       </c>
       <c r="B12">
+        <v>22.748000000000001</v>
+      </c>
+      <c r="C12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A13">
+        <v>22.748000000000001</v>
+      </c>
+      <c r="B13">
+        <v>23.414999999999999</v>
+      </c>
+      <c r="C13">
+        <v>1.1000000000000001</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A14">
+        <v>23.414999999999999</v>
+      </c>
+      <c r="B14">
+        <v>24.081</v>
+      </c>
+      <c r="C14">
+        <v>1.2</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A15">
+        <v>24.081</v>
+      </c>
+      <c r="B15">
+        <v>24.748000000000001</v>
+      </c>
+      <c r="C15">
+        <v>1.3</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A16">
+        <v>24.748000000000001</v>
+      </c>
+      <c r="B16">
+        <v>25.414999999999999</v>
+      </c>
+      <c r="C16">
+        <v>1.4</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A17">
+        <v>25.414999999999999</v>
+      </c>
+      <c r="B17">
+        <v>26.081</v>
+      </c>
+      <c r="C17">
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A18">
+        <v>26.081</v>
+      </c>
+      <c r="B18">
+        <v>26.748000000000001</v>
+      </c>
+      <c r="C18">
+        <v>1.6</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A19">
+        <v>26.748000000000001</v>
+      </c>
+      <c r="B19">
+        <v>26.831</v>
+      </c>
+      <c r="C19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A20">
+        <v>26.831</v>
+      </c>
+      <c r="B20">
+        <v>26.914999999999999</v>
+      </c>
+      <c r="C20">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A21">
+        <v>26.914999999999999</v>
+      </c>
+      <c r="B21">
+        <v>27.081</v>
+      </c>
+      <c r="C21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A22">
+        <v>27.081</v>
+      </c>
+      <c r="B22">
+        <v>27.164999999999999</v>
+      </c>
+      <c r="C22">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A23">
+        <v>27.164999999999999</v>
+      </c>
+      <c r="B23">
+        <v>27.331</v>
+      </c>
+      <c r="C23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A24">
+        <v>27.331</v>
+      </c>
+      <c r="B24">
+        <v>27.414999999999999</v>
+      </c>
+      <c r="C24">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A25">
+        <v>27.414999999999999</v>
+      </c>
+      <c r="B25">
+        <v>27.498000000000001</v>
+      </c>
+      <c r="C25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A26">
+        <v>27.498000000000001</v>
+      </c>
+      <c r="B26">
+        <v>27.581</v>
+      </c>
+      <c r="C26">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A27">
+        <v>27.581</v>
+      </c>
+      <c r="B27">
+        <v>27.664999999999999</v>
+      </c>
+      <c r="C27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A28">
+        <v>27.664999999999999</v>
+      </c>
+      <c r="B28">
+        <v>27.914999999999999</v>
+      </c>
+      <c r="C28">
+        <v>0.6</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A29">
+        <v>27.914999999999999</v>
+      </c>
+      <c r="B29">
         <v>999</v>
       </c>
-      <c r="C12">
+      <c r="C29">
         <v>1</v>
       </c>
     </row>
@@ -952,7 +1148,7 @@
   <dimension ref="A1:I19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F17" sqref="F17"/>
+      <selection activeCell="D26" sqref="D26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1104,27 +1300,171 @@
       <c r="I7" s="2"/>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A8">
+        <v>3</v>
+      </c>
+      <c r="B8">
+        <v>24.081</v>
+      </c>
+      <c r="C8">
+        <v>0</v>
+      </c>
+      <c r="D8">
+        <v>24.163999999999998</v>
+      </c>
+      <c r="E8">
+        <v>1</v>
+      </c>
+      <c r="F8" t="s">
+        <v>23</v>
+      </c>
       <c r="I8" s="2"/>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A9">
+        <v>3</v>
+      </c>
+      <c r="B9">
+        <v>24.163999999999998</v>
+      </c>
+      <c r="C9">
+        <v>1</v>
+      </c>
+      <c r="D9">
+        <v>24.497999999999998</v>
+      </c>
+      <c r="E9">
+        <v>1</v>
+      </c>
+      <c r="F9" t="s">
+        <v>23</v>
+      </c>
       <c r="I9" s="2"/>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A10">
+        <v>4</v>
+      </c>
+      <c r="B10">
+        <v>24.413999999999998</v>
+      </c>
+      <c r="C10">
+        <v>0</v>
+      </c>
+      <c r="D10">
+        <v>24.497999999999998</v>
+      </c>
+      <c r="E10">
+        <v>1</v>
+      </c>
+      <c r="F10" t="s">
+        <v>23</v>
+      </c>
       <c r="I10" s="2"/>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A11">
+        <v>4</v>
+      </c>
+      <c r="B11">
+        <v>24.497999999999998</v>
+      </c>
+      <c r="C11">
+        <v>1</v>
+      </c>
+      <c r="D11">
+        <v>24.831</v>
+      </c>
+      <c r="E11">
+        <v>1</v>
+      </c>
+      <c r="F11" t="s">
+        <v>23</v>
+      </c>
       <c r="I11" s="2"/>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A12">
+        <v>5</v>
+      </c>
+      <c r="B12">
+        <v>24.747999999999998</v>
+      </c>
+      <c r="C12">
+        <v>0</v>
+      </c>
+      <c r="D12">
+        <v>24.831</v>
+      </c>
+      <c r="E12">
+        <v>1</v>
+      </c>
+      <c r="F12" t="s">
+        <v>23</v>
+      </c>
       <c r="I12" s="2"/>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A13">
+        <v>5</v>
+      </c>
+      <c r="B13">
+        <v>24.831</v>
+      </c>
+      <c r="C13">
+        <v>1</v>
+      </c>
+      <c r="D13">
+        <v>25.163999999999998</v>
+      </c>
+      <c r="E13">
+        <v>1</v>
+      </c>
+      <c r="F13" t="s">
+        <v>23</v>
+      </c>
       <c r="I13" s="2"/>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A14">
+        <v>6</v>
+      </c>
+      <c r="B14">
+        <v>25.081</v>
+      </c>
+      <c r="C14">
+        <v>0</v>
+      </c>
+      <c r="D14">
+        <v>25.163999999999998</v>
+      </c>
+      <c r="E14">
+        <v>1</v>
+      </c>
+      <c r="F14" t="s">
+        <v>23</v>
+      </c>
       <c r="I14" s="2"/>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A15">
+        <v>6</v>
+      </c>
+      <c r="B15">
+        <v>25.163999999999998</v>
+      </c>
+      <c r="C15">
+        <v>1</v>
+      </c>
+      <c r="D15">
+        <v>999</v>
+      </c>
+      <c r="E15">
+        <v>1</v>
+      </c>
+      <c r="F15" t="s">
+        <v>23</v>
+      </c>
       <c r="I15" s="2"/>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.2">
@@ -1149,10 +1489,10 @@
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3C7059D0-50D6-42B0-899B-7876B4BEDB4C}">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A1:D61"/>
+  <dimension ref="A1:D107"/>
   <sheetViews>
-    <sheetView topLeftCell="A43" workbookViewId="0">
-      <selection activeCell="A62" sqref="A62:D69"/>
+    <sheetView tabSelected="1" topLeftCell="A76" workbookViewId="0">
+      <selection activeCell="G103" sqref="G103"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -2008,6 +2348,650 @@
         <v>1</v>
       </c>
       <c r="D61">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="62" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A62">
+        <v>22.748000000000001</v>
+      </c>
+      <c r="B62">
+        <v>1.6</v>
+      </c>
+      <c r="C62">
+        <v>0.8</v>
+      </c>
+      <c r="D62">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="63" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A63">
+        <v>22.914999999999999</v>
+      </c>
+      <c r="B63">
+        <v>0.8</v>
+      </c>
+      <c r="C63">
+        <v>0.8</v>
+      </c>
+      <c r="D63">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="64" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A64">
+        <v>23.081</v>
+      </c>
+      <c r="B64">
+        <v>1.6</v>
+      </c>
+      <c r="C64">
+        <v>0.8</v>
+      </c>
+      <c r="D64">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="65" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A65">
+        <v>23.248000000000001</v>
+      </c>
+      <c r="B65">
+        <v>-0.8</v>
+      </c>
+      <c r="C65">
+        <v>0.8</v>
+      </c>
+      <c r="D65">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="66" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A66">
+        <v>23.414999999999999</v>
+      </c>
+      <c r="B66">
+        <v>-1.6</v>
+      </c>
+      <c r="C66">
+        <v>0.8</v>
+      </c>
+      <c r="D66">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="67" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A67">
+        <v>23.581</v>
+      </c>
+      <c r="B67">
+        <v>-0.8</v>
+      </c>
+      <c r="C67">
+        <v>0.8</v>
+      </c>
+      <c r="D67">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="68" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A68">
+        <v>23.748000000000001</v>
+      </c>
+      <c r="B68">
+        <v>-1.6</v>
+      </c>
+      <c r="C68">
+        <v>0.8</v>
+      </c>
+      <c r="D68">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="69" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A69">
+        <v>23.914999999999999</v>
+      </c>
+      <c r="B69">
+        <v>0.8</v>
+      </c>
+      <c r="C69">
+        <v>0.8</v>
+      </c>
+      <c r="D69">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="70" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A70">
+        <v>24.081</v>
+      </c>
+      <c r="B70">
+        <v>1.6</v>
+      </c>
+      <c r="C70">
+        <v>0.8</v>
+      </c>
+      <c r="D70">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="71" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A71">
+        <v>24.248000000000001</v>
+      </c>
+      <c r="B71">
+        <v>0.8</v>
+      </c>
+      <c r="C71">
+        <v>0.8</v>
+      </c>
+      <c r="D71">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="72" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A72">
+        <v>24.414999999999999</v>
+      </c>
+      <c r="B72">
+        <v>1.6</v>
+      </c>
+      <c r="C72">
+        <v>0.8</v>
+      </c>
+      <c r="D72">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="73" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A73">
+        <v>24.581</v>
+      </c>
+      <c r="B73">
+        <v>-0.8</v>
+      </c>
+      <c r="C73">
+        <v>0.8</v>
+      </c>
+      <c r="D73">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="74" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A74">
+        <v>24.748000000000001</v>
+      </c>
+      <c r="B74">
+        <v>-1.6</v>
+      </c>
+      <c r="C74">
+        <v>0.8</v>
+      </c>
+      <c r="D74">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="75" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A75">
+        <v>24.914999999999999</v>
+      </c>
+      <c r="B75">
+        <v>-0.8</v>
+      </c>
+      <c r="C75">
+        <v>0.8</v>
+      </c>
+      <c r="D75">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="76" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A76">
+        <v>25.081</v>
+      </c>
+      <c r="B76">
+        <v>-1.6</v>
+      </c>
+      <c r="C76">
+        <v>0.8</v>
+      </c>
+      <c r="D76">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="77" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A77">
+        <v>25.248000000000001</v>
+      </c>
+      <c r="B77">
+        <v>0.8</v>
+      </c>
+      <c r="C77">
+        <v>0.8</v>
+      </c>
+      <c r="D77">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="78" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A78">
+        <v>25.414999999999999</v>
+      </c>
+      <c r="B78">
+        <v>-1.6</v>
+      </c>
+      <c r="C78">
+        <v>0.8</v>
+      </c>
+      <c r="D78">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="79" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A79">
+        <v>25.414999999999999</v>
+      </c>
+      <c r="B79">
+        <v>0</v>
+      </c>
+      <c r="C79">
+        <v>0.8</v>
+      </c>
+      <c r="D79">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="80" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A80">
+        <v>25.581</v>
+      </c>
+      <c r="B80">
+        <v>1.6</v>
+      </c>
+      <c r="C80">
+        <v>0.8</v>
+      </c>
+      <c r="D80">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="81" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A81">
+        <v>25.581</v>
+      </c>
+      <c r="B81">
+        <v>0</v>
+      </c>
+      <c r="C81">
+        <v>0.8</v>
+      </c>
+      <c r="D81">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="82" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A82">
+        <v>25.748000000000001</v>
+      </c>
+      <c r="B82">
+        <v>-1.6</v>
+      </c>
+      <c r="C82">
+        <v>0.8</v>
+      </c>
+      <c r="D82">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="83" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A83">
+        <v>25.748000000000001</v>
+      </c>
+      <c r="B83">
+        <v>-0.5</v>
+      </c>
+      <c r="C83">
+        <v>0.8</v>
+      </c>
+      <c r="D83">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="84" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A84">
+        <v>25.914999999999999</v>
+      </c>
+      <c r="B84">
+        <v>1.6</v>
+      </c>
+      <c r="C84">
+        <v>0.8</v>
+      </c>
+      <c r="D84">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="85" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A85">
+        <v>25.914999999999999</v>
+      </c>
+      <c r="B85">
+        <v>0.5</v>
+      </c>
+      <c r="C85">
+        <v>0.8</v>
+      </c>
+      <c r="D85">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="86" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A86">
+        <v>26.081</v>
+      </c>
+      <c r="B86">
+        <v>-0.6</v>
+      </c>
+      <c r="C86">
+        <v>0.8</v>
+      </c>
+      <c r="D86">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="87" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A87">
+        <v>26.164999999999999</v>
+      </c>
+      <c r="B87">
+        <v>1.6</v>
+      </c>
+      <c r="C87">
+        <v>0.8</v>
+      </c>
+      <c r="D87">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="88" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A88">
+        <v>26.248999999999999</v>
+      </c>
+      <c r="B88">
+        <v>-1.6</v>
+      </c>
+      <c r="C88">
+        <v>0.8</v>
+      </c>
+      <c r="D88">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="89" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A89">
+        <v>26.331</v>
+      </c>
+      <c r="B89">
+        <v>0.6</v>
+      </c>
+      <c r="C89">
+        <v>0.8</v>
+      </c>
+      <c r="D89">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="90" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A90">
+        <v>26.414999999999999</v>
+      </c>
+      <c r="B90">
+        <v>-0.6</v>
+      </c>
+      <c r="C90">
+        <v>0.8</v>
+      </c>
+      <c r="D90">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="91" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A91">
+        <v>26.456</v>
+      </c>
+      <c r="B91">
+        <v>0.6</v>
+      </c>
+      <c r="C91">
+        <v>0.8</v>
+      </c>
+      <c r="D91">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="92" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A92">
+        <v>26.498000000000001</v>
+      </c>
+      <c r="B92">
+        <v>-0.6</v>
+      </c>
+      <c r="C92">
+        <v>0.8</v>
+      </c>
+      <c r="D92">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="93" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A93">
+        <v>26.581</v>
+      </c>
+      <c r="B93">
+        <v>1</v>
+      </c>
+      <c r="C93">
+        <v>0.8</v>
+      </c>
+      <c r="D93">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="94" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A94">
+        <v>26.664999999999999</v>
+      </c>
+      <c r="B94">
+        <v>-1.6</v>
+      </c>
+      <c r="C94">
+        <v>0.8</v>
+      </c>
+      <c r="D94">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="95" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A95">
+        <v>26.748000000000001</v>
+      </c>
+      <c r="B95">
+        <v>0</v>
+      </c>
+      <c r="C95">
+        <v>1.4</v>
+      </c>
+      <c r="D95">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="96" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A96">
+        <v>28.248000000000001</v>
+      </c>
+      <c r="B96">
+        <v>0.8</v>
+      </c>
+      <c r="C96">
+        <v>0.6</v>
+      </c>
+      <c r="D96">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="97" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A97">
+        <v>28.331</v>
+      </c>
+      <c r="B97">
+        <v>0</v>
+      </c>
+      <c r="C97">
+        <v>0.6</v>
+      </c>
+      <c r="D97">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="98" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A98">
+        <v>28.748000000000001</v>
+      </c>
+      <c r="B98">
+        <v>-1</v>
+      </c>
+      <c r="C98">
+        <v>0.8</v>
+      </c>
+      <c r="D98">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="99" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A99">
+        <v>28.914999999999999</v>
+      </c>
+      <c r="B99">
+        <v>-1.6</v>
+      </c>
+      <c r="C99">
+        <v>0.8</v>
+      </c>
+      <c r="D99">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="100" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A100">
+        <v>28.914999999999999</v>
+      </c>
+      <c r="B100">
+        <v>0</v>
+      </c>
+      <c r="C100">
+        <v>0.8</v>
+      </c>
+      <c r="D100">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="101" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A101">
+        <v>29.081</v>
+      </c>
+      <c r="B101">
+        <v>1.2</v>
+      </c>
+      <c r="C101">
+        <v>0.8</v>
+      </c>
+      <c r="D101">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="102" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A102">
+        <v>29.137</v>
+      </c>
+      <c r="B102">
+        <v>0.4</v>
+      </c>
+      <c r="C102">
+        <v>0.8</v>
+      </c>
+      <c r="D102">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="103" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A103">
+        <v>29.192</v>
+      </c>
+      <c r="B103">
+        <v>1.2</v>
+      </c>
+      <c r="C103">
+        <v>0.8</v>
+      </c>
+      <c r="D103">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="104" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A104">
+        <v>29.248000000000001</v>
+      </c>
+      <c r="B104">
+        <v>0.4</v>
+      </c>
+      <c r="C104">
+        <v>0.8</v>
+      </c>
+      <c r="D104">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="105" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A105">
+        <v>29.303000000000001</v>
+      </c>
+      <c r="B105">
+        <v>1.2</v>
+      </c>
+      <c r="C105">
+        <v>0.8</v>
+      </c>
+      <c r="D105">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="106" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A106">
+        <v>29.359000000000002</v>
+      </c>
+      <c r="B106">
+        <v>0.4</v>
+      </c>
+      <c r="C106">
+        <v>0.8</v>
+      </c>
+      <c r="D106">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="107" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A107">
+        <v>29.414999999999999</v>
+      </c>
+      <c r="B107">
+        <v>1.2</v>
+      </c>
+      <c r="C107">
+        <v>0.8</v>
+      </c>
+      <c r="D107">
         <v>1</v>
       </c>
     </row>
@@ -2021,10 +3005,10 @@
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{967B2D43-E0B0-4050-83A2-AF5C6E5EE029}">
   <sheetPr codeName="Sheet3"/>
-  <dimension ref="A1:L35"/>
+  <dimension ref="A1:L46"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D33" sqref="D33"/>
+    <sheetView topLeftCell="A19" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F46" sqref="F46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -3037,25 +4021,641 @@
       <c r="L28" s="3"/>
     </row>
     <row r="29" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A29">
+        <v>1</v>
+      </c>
+      <c r="B29">
+        <v>24</v>
+      </c>
+      <c r="C29">
+        <v>22.748000000000001</v>
+      </c>
+      <c r="D29">
+        <v>-2</v>
+      </c>
+      <c r="E29">
+        <v>-1.2</v>
+      </c>
+      <c r="F29">
+        <v>22.831</v>
+      </c>
+      <c r="G29">
+        <v>-0.4</v>
+      </c>
+      <c r="H29">
+        <v>0.4</v>
+      </c>
+      <c r="I29" t="s">
+        <v>29</v>
+      </c>
+      <c r="J29" t="s">
+        <v>29</v>
+      </c>
+      <c r="K29">
+        <v>0</v>
+      </c>
       <c r="L29" s="3"/>
     </row>
     <row r="30" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A30">
+        <v>1</v>
+      </c>
+      <c r="B30">
+        <v>24</v>
+      </c>
+      <c r="C30">
+        <v>22.831</v>
+      </c>
+      <c r="D30">
+        <v>-0.4</v>
+      </c>
+      <c r="E30">
+        <v>0.4</v>
+      </c>
+      <c r="F30">
+        <v>22.914999999999999</v>
+      </c>
+      <c r="G30">
+        <v>-0.4</v>
+      </c>
+      <c r="H30">
+        <v>0.4</v>
+      </c>
+      <c r="I30" t="s">
+        <v>29</v>
+      </c>
+      <c r="J30" t="s">
+        <v>29</v>
+      </c>
+      <c r="K30">
+        <v>0</v>
+      </c>
       <c r="L30" s="3"/>
     </row>
     <row r="31" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A31">
+        <v>1</v>
+      </c>
+      <c r="B31">
+        <v>25</v>
+      </c>
+      <c r="C31">
+        <v>23.081</v>
+      </c>
+      <c r="D31">
+        <v>-2</v>
+      </c>
+      <c r="E31">
+        <v>-1.2</v>
+      </c>
+      <c r="F31">
+        <v>23.164999999999999</v>
+      </c>
+      <c r="G31">
+        <v>-0.4</v>
+      </c>
+      <c r="H31">
+        <v>0.4</v>
+      </c>
+      <c r="I31" t="s">
+        <v>29</v>
+      </c>
+      <c r="J31" t="s">
+        <v>29</v>
+      </c>
+      <c r="K31">
+        <v>0</v>
+      </c>
       <c r="L31" s="3"/>
     </row>
     <row r="32" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A32">
+        <v>1</v>
+      </c>
+      <c r="B32">
+        <v>25</v>
+      </c>
+      <c r="C32">
+        <v>23.164999999999999</v>
+      </c>
+      <c r="D32">
+        <v>-0.4</v>
+      </c>
+      <c r="E32">
+        <v>0.4</v>
+      </c>
+      <c r="F32">
+        <v>23.248000000000001</v>
+      </c>
+      <c r="G32">
+        <v>-0.4</v>
+      </c>
+      <c r="H32">
+        <v>0.4</v>
+      </c>
+      <c r="I32" t="s">
+        <v>29</v>
+      </c>
+      <c r="J32" t="s">
+        <v>29</v>
+      </c>
+      <c r="K32">
+        <v>0</v>
+      </c>
       <c r="L32" s="3"/>
     </row>
-    <row r="33" spans="12:12" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A33">
+        <v>1</v>
+      </c>
+      <c r="B33">
+        <v>26</v>
+      </c>
+      <c r="C33">
+        <v>23.414999999999999</v>
+      </c>
+      <c r="D33">
+        <v>1.2</v>
+      </c>
+      <c r="E33">
+        <v>2</v>
+      </c>
+      <c r="F33">
+        <v>23.498000000000001</v>
+      </c>
+      <c r="G33">
+        <v>-0.4</v>
+      </c>
+      <c r="H33">
+        <v>0.4</v>
+      </c>
+      <c r="I33" t="s">
+        <v>29</v>
+      </c>
+      <c r="J33" t="s">
+        <v>29</v>
+      </c>
+      <c r="K33">
+        <v>0</v>
+      </c>
       <c r="L33" s="3"/>
     </row>
-    <row r="34" spans="12:12" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A34">
+        <v>1</v>
+      </c>
+      <c r="B34">
+        <v>26</v>
+      </c>
+      <c r="C34">
+        <v>23.498000000000001</v>
+      </c>
+      <c r="D34">
+        <v>-0.4</v>
+      </c>
+      <c r="E34">
+        <v>0.4</v>
+      </c>
+      <c r="F34">
+        <v>23.581</v>
+      </c>
+      <c r="G34">
+        <v>-0.4</v>
+      </c>
+      <c r="H34">
+        <v>0.4</v>
+      </c>
+      <c r="I34" t="s">
+        <v>29</v>
+      </c>
+      <c r="J34" t="s">
+        <v>29</v>
+      </c>
+      <c r="K34">
+        <v>0</v>
+      </c>
       <c r="L34" s="3"/>
     </row>
-    <row r="35" spans="12:12" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A35">
+        <v>1</v>
+      </c>
+      <c r="B35">
+        <v>27</v>
+      </c>
+      <c r="C35">
+        <v>23.748000000000001</v>
+      </c>
+      <c r="D35">
+        <v>1.2</v>
+      </c>
+      <c r="E35">
+        <v>2</v>
+      </c>
+      <c r="F35">
+        <v>23.831</v>
+      </c>
+      <c r="G35">
+        <v>-0.4</v>
+      </c>
+      <c r="H35">
+        <v>0.4</v>
+      </c>
+      <c r="I35" t="s">
+        <v>29</v>
+      </c>
+      <c r="J35" t="s">
+        <v>29</v>
+      </c>
+      <c r="K35">
+        <v>0</v>
+      </c>
       <c r="L35" s="3"/>
+    </row>
+    <row r="36" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A36">
+        <v>1</v>
+      </c>
+      <c r="B36">
+        <v>27</v>
+      </c>
+      <c r="C36">
+        <v>23.831</v>
+      </c>
+      <c r="D36">
+        <v>-0.4</v>
+      </c>
+      <c r="E36">
+        <v>0.4</v>
+      </c>
+      <c r="F36">
+        <v>23.914999999999999</v>
+      </c>
+      <c r="G36">
+        <v>-0.4</v>
+      </c>
+      <c r="H36">
+        <v>0.4</v>
+      </c>
+      <c r="I36" t="s">
+        <v>29</v>
+      </c>
+      <c r="J36" t="s">
+        <v>29</v>
+      </c>
+      <c r="K36">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A37">
+        <v>3</v>
+      </c>
+      <c r="B37">
+        <v>28</v>
+      </c>
+      <c r="C37">
+        <v>24.081</v>
+      </c>
+      <c r="D37">
+        <v>-2</v>
+      </c>
+      <c r="E37">
+        <v>-1.2</v>
+      </c>
+      <c r="F37">
+        <v>24.163999999999998</v>
+      </c>
+      <c r="G37">
+        <v>-0.4</v>
+      </c>
+      <c r="H37">
+        <v>0.4</v>
+      </c>
+      <c r="I37" t="s">
+        <v>29</v>
+      </c>
+      <c r="J37" t="s">
+        <v>29</v>
+      </c>
+      <c r="K37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A38">
+        <v>3</v>
+      </c>
+      <c r="B38">
+        <v>28</v>
+      </c>
+      <c r="C38">
+        <v>24.163999999999998</v>
+      </c>
+      <c r="D38">
+        <v>-0.4</v>
+      </c>
+      <c r="E38">
+        <v>0.4</v>
+      </c>
+      <c r="F38">
+        <v>24.247999999999998</v>
+      </c>
+      <c r="G38">
+        <v>-0.4</v>
+      </c>
+      <c r="H38">
+        <v>0.4</v>
+      </c>
+      <c r="I38" t="s">
+        <v>29</v>
+      </c>
+      <c r="J38" t="s">
+        <v>29</v>
+      </c>
+      <c r="K38">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A39">
+        <v>4</v>
+      </c>
+      <c r="B39">
+        <v>29</v>
+      </c>
+      <c r="C39">
+        <v>24.413999999999998</v>
+      </c>
+      <c r="D39">
+        <v>-2</v>
+      </c>
+      <c r="E39">
+        <v>-1.2</v>
+      </c>
+      <c r="F39">
+        <v>24.497999999999998</v>
+      </c>
+      <c r="G39">
+        <v>-0.4</v>
+      </c>
+      <c r="H39">
+        <v>0.4</v>
+      </c>
+      <c r="I39" t="s">
+        <v>29</v>
+      </c>
+      <c r="J39" t="s">
+        <v>29</v>
+      </c>
+      <c r="K39">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A40">
+        <v>4</v>
+      </c>
+      <c r="B40">
+        <v>29</v>
+      </c>
+      <c r="C40">
+        <v>24.497999999999998</v>
+      </c>
+      <c r="D40">
+        <v>-0.4</v>
+      </c>
+      <c r="E40">
+        <v>0.4</v>
+      </c>
+      <c r="F40">
+        <v>24.581</v>
+      </c>
+      <c r="G40">
+        <v>-0.4</v>
+      </c>
+      <c r="H40">
+        <v>0.4</v>
+      </c>
+      <c r="I40" t="s">
+        <v>29</v>
+      </c>
+      <c r="J40" t="s">
+        <v>29</v>
+      </c>
+      <c r="K40">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A41">
+        <v>5</v>
+      </c>
+      <c r="B41">
+        <v>30</v>
+      </c>
+      <c r="C41">
+        <v>24.747999999999998</v>
+      </c>
+      <c r="D41">
+        <v>1.2</v>
+      </c>
+      <c r="E41">
+        <v>2</v>
+      </c>
+      <c r="F41">
+        <v>24.831</v>
+      </c>
+      <c r="G41">
+        <v>-0.4</v>
+      </c>
+      <c r="H41">
+        <v>0.4</v>
+      </c>
+      <c r="I41" t="s">
+        <v>29</v>
+      </c>
+      <c r="J41" t="s">
+        <v>29</v>
+      </c>
+      <c r="K41">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A42">
+        <v>5</v>
+      </c>
+      <c r="B42">
+        <v>30</v>
+      </c>
+      <c r="C42">
+        <v>24.831</v>
+      </c>
+      <c r="D42">
+        <v>-0.4</v>
+      </c>
+      <c r="E42">
+        <v>0.4</v>
+      </c>
+      <c r="F42">
+        <v>24.913999999999998</v>
+      </c>
+      <c r="G42">
+        <v>-0.4</v>
+      </c>
+      <c r="H42">
+        <v>0.4</v>
+      </c>
+      <c r="I42" t="s">
+        <v>29</v>
+      </c>
+      <c r="J42" t="s">
+        <v>29</v>
+      </c>
+      <c r="K42">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A43">
+        <v>6</v>
+      </c>
+      <c r="B43">
+        <v>31</v>
+      </c>
+      <c r="C43">
+        <v>25.081</v>
+      </c>
+      <c r="D43">
+        <v>1.2</v>
+      </c>
+      <c r="E43">
+        <v>2</v>
+      </c>
+      <c r="F43">
+        <v>25.163999999999998</v>
+      </c>
+      <c r="G43">
+        <v>-0.4</v>
+      </c>
+      <c r="H43">
+        <v>0.4</v>
+      </c>
+      <c r="I43" t="s">
+        <v>29</v>
+      </c>
+      <c r="J43" t="s">
+        <v>29</v>
+      </c>
+      <c r="K43">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A44">
+        <v>6</v>
+      </c>
+      <c r="B44">
+        <v>31</v>
+      </c>
+      <c r="C44">
+        <v>25.163999999999998</v>
+      </c>
+      <c r="D44">
+        <v>-0.4</v>
+      </c>
+      <c r="E44">
+        <v>0.4</v>
+      </c>
+      <c r="F44">
+        <v>25.247999999999998</v>
+      </c>
+      <c r="G44">
+        <v>-0.4</v>
+      </c>
+      <c r="H44">
+        <v>0.4</v>
+      </c>
+      <c r="I44" t="s">
+        <v>29</v>
+      </c>
+      <c r="J44" t="s">
+        <v>29</v>
+      </c>
+      <c r="K44">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A45">
+        <v>1</v>
+      </c>
+      <c r="B45">
+        <v>32</v>
+      </c>
+      <c r="C45">
+        <v>28.414999999999999</v>
+      </c>
+      <c r="D45">
+        <v>-0.3</v>
+      </c>
+      <c r="E45">
+        <v>0.3</v>
+      </c>
+      <c r="F45">
+        <v>28.581</v>
+      </c>
+      <c r="G45">
+        <v>-1</v>
+      </c>
+      <c r="H45">
+        <v>-0.2</v>
+      </c>
+      <c r="I45" t="s">
+        <v>29</v>
+      </c>
+      <c r="J45" t="s">
+        <v>29</v>
+      </c>
+      <c r="K45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A46">
+        <v>1</v>
+      </c>
+      <c r="B46">
+        <v>32</v>
+      </c>
+      <c r="C46">
+        <v>28.581</v>
+      </c>
+      <c r="D46">
+        <v>-1</v>
+      </c>
+      <c r="E46">
+        <v>-0.2</v>
+      </c>
+      <c r="F46">
+        <v>28.748000000000001</v>
+      </c>
+      <c r="G46">
+        <v>0.4</v>
+      </c>
+      <c r="H46">
+        <v>1.4</v>
+      </c>
+      <c r="I46" t="s">
+        <v>29</v>
+      </c>
+      <c r="J46" t="s">
+        <v>29</v>
+      </c>
+      <c r="K46">
+        <v>0</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
@@ -3069,7 +4669,7 @@
   <sheetPr codeName="Sheet4"/>
   <dimension ref="A1:I56"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
+    <sheetView topLeftCell="A19" workbookViewId="0">
       <selection activeCell="G40" sqref="G40"/>
     </sheetView>
   </sheetViews>
@@ -4221,10 +5821,10 @@
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{192095B2-1BEA-4365-B4DE-88EEBB6E4423}">
   <sheetPr codeName="Sheet6"/>
-  <dimension ref="A1:M1"/>
+  <dimension ref="A1:M3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="K20" sqref="A2:K20"/>
+      <selection activeCell="M23" sqref="M23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -4270,6 +5870,70 @@
         <v>28</v>
       </c>
     </row>
+    <row r="2" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2">
+        <v>1</v>
+      </c>
+      <c r="C2">
+        <v>27.914999999999999</v>
+      </c>
+      <c r="D2">
+        <v>28.081</v>
+      </c>
+      <c r="E2">
+        <v>28.164999999999999</v>
+      </c>
+      <c r="F2">
+        <v>-0.4</v>
+      </c>
+      <c r="G2">
+        <v>0</v>
+      </c>
+      <c r="H2">
+        <v>0.4</v>
+      </c>
+      <c r="I2">
+        <v>1</v>
+      </c>
+      <c r="J2" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A3">
+        <v>6</v>
+      </c>
+      <c r="B3">
+        <v>2</v>
+      </c>
+      <c r="C3">
+        <v>27.914999999999999</v>
+      </c>
+      <c r="D3">
+        <v>28.081</v>
+      </c>
+      <c r="E3">
+        <v>28.164999999999999</v>
+      </c>
+      <c r="F3">
+        <v>-0.4</v>
+      </c>
+      <c r="G3">
+        <v>1</v>
+      </c>
+      <c r="H3">
+        <v>0.4</v>
+      </c>
+      <c r="I3">
+        <v>0</v>
+      </c>
+      <c r="J3" t="s">
+        <v>29</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
